--- a/data/pca/factorExposure/factorExposure_2009-07-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01629644210765588</v>
+        <v>0.01622702093237771</v>
       </c>
       <c r="C2">
-        <v>0.001291176847688794</v>
+        <v>-0.000953661554053324</v>
       </c>
       <c r="D2">
-        <v>-0.00748240612552621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009388484257251804</v>
+      </c>
+      <c r="E2">
+        <v>-0.001465799128646817</v>
+      </c>
+      <c r="F2">
+        <v>0.01231615321329131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09092577002019436</v>
+        <v>0.09284341502392277</v>
       </c>
       <c r="C4">
-        <v>0.01979115964499887</v>
+        <v>-0.0146478246825114</v>
       </c>
       <c r="D4">
-        <v>-0.07540299005476149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08187470542384583</v>
+      </c>
+      <c r="E4">
+        <v>-0.02693649051375621</v>
+      </c>
+      <c r="F4">
+        <v>-0.03205385582474437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1.173680408700711e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.282164368661424e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-3.733081250190862e-05</v>
+      </c>
+      <c r="E5">
+        <v>1.864218888917904e-05</v>
+      </c>
+      <c r="F5">
+        <v>-3.22312924711357e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1531666705898666</v>
+        <v>0.1613185964302796</v>
       </c>
       <c r="C6">
-        <v>0.02900414849598058</v>
+        <v>-0.02828088725171026</v>
       </c>
       <c r="D6">
-        <v>0.03518974228004607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02668017023403775</v>
+      </c>
+      <c r="E6">
+        <v>-0.008852384200138929</v>
+      </c>
+      <c r="F6">
+        <v>-0.0409906484447994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06108495261743497</v>
+        <v>0.06240395256309021</v>
       </c>
       <c r="C7">
-        <v>0.001928404097562244</v>
+        <v>0.001603024885250046</v>
       </c>
       <c r="D7">
-        <v>-0.04795810203475113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0524496873243407</v>
+      </c>
+      <c r="E7">
+        <v>-0.01299373216286026</v>
+      </c>
+      <c r="F7">
+        <v>-0.04897416857426267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06184257946911564</v>
+        <v>0.05757832172816208</v>
       </c>
       <c r="C8">
-        <v>-0.01081411167511844</v>
+        <v>0.01246795012980184</v>
       </c>
       <c r="D8">
-        <v>-0.0271149313289526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03055659992290019</v>
+      </c>
+      <c r="E8">
+        <v>-0.01699549653975447</v>
+      </c>
+      <c r="F8">
+        <v>0.02594219428995033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.069873535854063</v>
+        <v>0.07139979166602434</v>
       </c>
       <c r="C9">
-        <v>0.01607042164944273</v>
+        <v>-0.01028028268733361</v>
       </c>
       <c r="D9">
-        <v>-0.07715124868133355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0858702820441212</v>
+      </c>
+      <c r="E9">
+        <v>-0.02424596024028125</v>
+      </c>
+      <c r="F9">
+        <v>-0.04869588363237025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08534378959251446</v>
+        <v>0.08816570042138373</v>
       </c>
       <c r="C10">
-        <v>0.01448289211425811</v>
+        <v>-0.02158079337277172</v>
       </c>
       <c r="D10">
-        <v>0.1647327208187987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1599661610170583</v>
+      </c>
+      <c r="E10">
+        <v>0.03247897792839437</v>
+      </c>
+      <c r="F10">
+        <v>0.05780034578319409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09108521696207957</v>
+        <v>0.08768259513117437</v>
       </c>
       <c r="C11">
-        <v>0.01727516123024917</v>
+        <v>-0.01117513536516615</v>
       </c>
       <c r="D11">
-        <v>-0.109282504257625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.117742338521984</v>
+      </c>
+      <c r="E11">
+        <v>-0.04766927724521065</v>
+      </c>
+      <c r="F11">
+        <v>-0.02376142934514957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09563094908942282</v>
+        <v>0.08995375257873185</v>
       </c>
       <c r="C12">
-        <v>0.01481802282087073</v>
+        <v>-0.008255114769517471</v>
       </c>
       <c r="D12">
-        <v>-0.1155667879791008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320415949407016</v>
+      </c>
+      <c r="E12">
+        <v>-0.04679347261975864</v>
+      </c>
+      <c r="F12">
+        <v>-0.03019306771211425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04503195995526808</v>
+        <v>0.0440892614694506</v>
       </c>
       <c r="C13">
-        <v>0.006348852429643238</v>
+        <v>-0.002495294265418317</v>
       </c>
       <c r="D13">
-        <v>-0.041740897795831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05328741889787254</v>
+      </c>
+      <c r="E13">
+        <v>0.0003209840122227622</v>
+      </c>
+      <c r="F13">
+        <v>-0.003635211815799386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01908119569484595</v>
+        <v>0.02345841614747838</v>
       </c>
       <c r="C14">
-        <v>0.01502167868657289</v>
+        <v>-0.01364456481715052</v>
       </c>
       <c r="D14">
-        <v>-0.029515282300828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03307702885245405</v>
+      </c>
+      <c r="E14">
+        <v>-0.01826800085852438</v>
+      </c>
+      <c r="F14">
+        <v>-0.01348764984418735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03340902738397244</v>
+        <v>0.03346179774904529</v>
       </c>
       <c r="C15">
-        <v>0.00746148783087021</v>
+        <v>-0.00513710769305879</v>
       </c>
       <c r="D15">
-        <v>-0.04238342724543542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04656770612026911</v>
+      </c>
+      <c r="E15">
+        <v>-0.007544792010133918</v>
+      </c>
+      <c r="F15">
+        <v>-0.029548952292554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07482860740983538</v>
+        <v>0.07266471905335171</v>
       </c>
       <c r="C16">
-        <v>0.007511933148856129</v>
+        <v>-0.001396872627208202</v>
       </c>
       <c r="D16">
-        <v>-0.1131352963258383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.128354271893925</v>
+      </c>
+      <c r="E16">
+        <v>-0.0616901336368916</v>
+      </c>
+      <c r="F16">
+        <v>-0.02653993941827256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0001155592930037607</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002950047316037359</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001446369544324524</v>
+      </c>
+      <c r="E17">
+        <v>-0.001115484758436711</v>
+      </c>
+      <c r="F17">
+        <v>0.00247982262733225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01969676687772976</v>
+        <v>0.04023845833506654</v>
       </c>
       <c r="C18">
-        <v>-0.002739412636469567</v>
+        <v>0.002801513312480107</v>
       </c>
       <c r="D18">
-        <v>-0.02540554038484103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01569930684786176</v>
+      </c>
+      <c r="E18">
+        <v>0.006679592839057063</v>
+      </c>
+      <c r="F18">
+        <v>0.009895956807498382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0631711877382375</v>
+        <v>0.06210955234490308</v>
       </c>
       <c r="C20">
-        <v>0.005389594060939576</v>
+        <v>-0.0008332679733645708</v>
       </c>
       <c r="D20">
-        <v>-0.06812309486516331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07861658456659676</v>
+      </c>
+      <c r="E20">
+        <v>-0.05715905438777882</v>
+      </c>
+      <c r="F20">
+        <v>-0.02931742433706685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03819922339024674</v>
+        <v>0.04047386176164333</v>
       </c>
       <c r="C21">
-        <v>0.009458780741200571</v>
+        <v>-0.006229659361995551</v>
       </c>
       <c r="D21">
-        <v>-0.03348013695032826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03750759036821665</v>
+      </c>
+      <c r="E21">
+        <v>0.001764172216576043</v>
+      </c>
+      <c r="F21">
+        <v>0.02556624641344542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04122295399177305</v>
+        <v>0.04455056378081074</v>
       </c>
       <c r="C22">
-        <v>0.001894226696829746</v>
+        <v>-0.0009921111860323108</v>
       </c>
       <c r="D22">
-        <v>0.003431460186173713</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.005960660183327401</v>
+      </c>
+      <c r="E22">
+        <v>-0.03701570890782597</v>
+      </c>
+      <c r="F22">
+        <v>0.0507346460836084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0411858684858294</v>
+        <v>0.04452653681821796</v>
       </c>
       <c r="C23">
-        <v>0.001883924000409445</v>
+        <v>-0.0009831107114726017</v>
       </c>
       <c r="D23">
-        <v>0.003408498805836205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00597503263155633</v>
+      </c>
+      <c r="E23">
+        <v>-0.03719865334457634</v>
+      </c>
+      <c r="F23">
+        <v>0.050707233016895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08230280333642601</v>
+        <v>0.07863542648942734</v>
       </c>
       <c r="C24">
-        <v>0.008126556956407308</v>
+        <v>-0.002162730629106588</v>
       </c>
       <c r="D24">
-        <v>-0.1139817936561823</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206074595179665</v>
+      </c>
+      <c r="E24">
+        <v>-0.04965229138554246</v>
+      </c>
+      <c r="F24">
+        <v>-0.02901145000217728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08730592228624784</v>
+        <v>0.08369671874755742</v>
       </c>
       <c r="C25">
-        <v>0.01066414516042503</v>
+        <v>-0.004872552367351339</v>
       </c>
       <c r="D25">
-        <v>-0.09999693207637012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1097079737309536</v>
+      </c>
+      <c r="E25">
+        <v>-0.03285759504717665</v>
+      </c>
+      <c r="F25">
+        <v>-0.02668728194874032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05789649188848527</v>
+        <v>0.05974959921832881</v>
       </c>
       <c r="C26">
-        <v>0.01746556718041938</v>
+        <v>-0.01439713043228414</v>
       </c>
       <c r="D26">
-        <v>-0.0286894904154353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04338706917934249</v>
+      </c>
+      <c r="E26">
+        <v>-0.02916861197270083</v>
+      </c>
+      <c r="F26">
+        <v>0.00798619469668967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1341696177136146</v>
+        <v>0.1422904774679367</v>
       </c>
       <c r="C28">
-        <v>0.01349254973006404</v>
+        <v>-0.02326270790929437</v>
       </c>
       <c r="D28">
-        <v>0.2678594861206431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609825679302825</v>
+      </c>
+      <c r="E28">
+        <v>0.06889269092642934</v>
+      </c>
+      <c r="F28">
+        <v>-0.005151085503316383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02546334584433088</v>
+        <v>0.02861900313821211</v>
       </c>
       <c r="C29">
-        <v>0.009651833182834395</v>
+        <v>-0.008780298190870653</v>
       </c>
       <c r="D29">
-        <v>-0.02820712356799998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03086418468222958</v>
+      </c>
+      <c r="E29">
+        <v>-0.01314904191381738</v>
+      </c>
+      <c r="F29">
+        <v>0.01255776804684458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06173110068909569</v>
+        <v>0.05888682771359818</v>
       </c>
       <c r="C30">
-        <v>0.008890342913597259</v>
+        <v>-0.00260498551042869</v>
       </c>
       <c r="D30">
-        <v>-0.07428846641092028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08702001302396614</v>
+      </c>
+      <c r="E30">
+        <v>-0.01383497867440905</v>
+      </c>
+      <c r="F30">
+        <v>-0.07830881031881304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05021676241091509</v>
+        <v>0.05141495884376347</v>
       </c>
       <c r="C31">
-        <v>0.01708007680452141</v>
+        <v>-0.01602212273444792</v>
       </c>
       <c r="D31">
-        <v>-0.02302359257507516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02495108722008613</v>
+      </c>
+      <c r="E31">
+        <v>-0.0286125339295403</v>
+      </c>
+      <c r="F31">
+        <v>4.168222521888921e-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04749285425684083</v>
+        <v>0.05174272816902871</v>
       </c>
       <c r="C32">
-        <v>0.002393291391689902</v>
+        <v>0.001558126594064182</v>
       </c>
       <c r="D32">
-        <v>-0.02534267845360638</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03451511612963008</v>
+      </c>
+      <c r="E32">
+        <v>-0.03258045413539807</v>
+      </c>
+      <c r="F32">
+        <v>-0.003317176431275678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09038991086314996</v>
+        <v>0.0894329269407883</v>
       </c>
       <c r="C33">
-        <v>0.01315032636826941</v>
+        <v>-0.006944824572659903</v>
       </c>
       <c r="D33">
-        <v>-0.08690746161362001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1034487013773047</v>
+      </c>
+      <c r="E33">
+        <v>-0.04682001233523639</v>
+      </c>
+      <c r="F33">
+        <v>-0.04282920394920389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06894721400554796</v>
+        <v>0.06732526448115528</v>
       </c>
       <c r="C34">
-        <v>0.01556168302569477</v>
+        <v>-0.01033178174817656</v>
       </c>
       <c r="D34">
-        <v>-0.09486591926988008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093293669886253</v>
+      </c>
+      <c r="E34">
+        <v>-0.03571400261294922</v>
+      </c>
+      <c r="F34">
+        <v>-0.03408920573349761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02516323288248459</v>
+        <v>0.02668559975036683</v>
       </c>
       <c r="C35">
-        <v>0.003711008099836197</v>
+        <v>-0.003035290713686047</v>
       </c>
       <c r="D35">
-        <v>-0.008609546788871877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01251277807229473</v>
+      </c>
+      <c r="E35">
+        <v>-0.01308127658402871</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008143749417323232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02571978800170162</v>
+        <v>0.02787690730387759</v>
       </c>
       <c r="C36">
-        <v>0.007633637422505739</v>
+        <v>-0.006859575512362045</v>
       </c>
       <c r="D36">
-        <v>-0.03895356589499188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03912719259362057</v>
+      </c>
+      <c r="E36">
+        <v>-0.01677513193484435</v>
+      </c>
+      <c r="F36">
+        <v>-0.01391200729574342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001378969215020662</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008193718413539902</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002751253335782535</v>
+      </c>
+      <c r="E37">
+        <v>4.438251933333736e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.001655596566749529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1125896129997169</v>
+        <v>0.101361970234009</v>
       </c>
       <c r="C39">
-        <v>0.02332192381944898</v>
+        <v>-0.0160730976136111</v>
       </c>
       <c r="D39">
-        <v>-0.1478544390609629</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1511159805305367</v>
+      </c>
+      <c r="E39">
+        <v>-0.05940854869423073</v>
+      </c>
+      <c r="F39">
+        <v>-0.02173986047577019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03879183825978905</v>
+        <v>0.04389449221869943</v>
       </c>
       <c r="C40">
-        <v>0.009339842988731169</v>
+        <v>-0.00764728993656084</v>
       </c>
       <c r="D40">
-        <v>-0.02069543562312971</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03298494791323351</v>
+      </c>
+      <c r="E40">
+        <v>-0.002568387952476633</v>
+      </c>
+      <c r="F40">
+        <v>0.01676073618598621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02549899068138741</v>
+        <v>0.02762436054865681</v>
       </c>
       <c r="C41">
-        <v>0.007365304829361482</v>
+        <v>-0.006901861270680172</v>
       </c>
       <c r="D41">
-        <v>-0.00917437664757439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01067164844709702</v>
+      </c>
+      <c r="E41">
+        <v>-0.01199161638264538</v>
+      </c>
+      <c r="F41">
+        <v>0.007362860631596755</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04244451331691753</v>
+        <v>0.04038978403727025</v>
       </c>
       <c r="C43">
-        <v>0.008272222676210951</v>
+        <v>-0.007692339892488082</v>
       </c>
       <c r="D43">
-        <v>-0.01732612599223867</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01934270239150445</v>
+      </c>
+      <c r="E43">
+        <v>-0.02544289724659411</v>
+      </c>
+      <c r="F43">
+        <v>0.01592311113723922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06981167493782733</v>
+        <v>0.07862593673145025</v>
       </c>
       <c r="C44">
-        <v>0.02489913031144894</v>
+        <v>-0.01943189328447188</v>
       </c>
       <c r="D44">
-        <v>-0.09680964986298474</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.096362077584628</v>
+      </c>
+      <c r="E44">
+        <v>-0.06180579321127078</v>
+      </c>
+      <c r="F44">
+        <v>-0.1680218575709705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02191751001029858</v>
+        <v>0.02467555212221307</v>
       </c>
       <c r="C46">
-        <v>0.004519516596285676</v>
+        <v>-0.003769923203287507</v>
       </c>
       <c r="D46">
-        <v>-0.009903885430532266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01309611679897987</v>
+      </c>
+      <c r="E46">
+        <v>-0.02739474266822983</v>
+      </c>
+      <c r="F46">
+        <v>0.005203976701915613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0520897362395384</v>
+        <v>0.05185347414091339</v>
       </c>
       <c r="C47">
-        <v>0.004807412728628521</v>
+        <v>-0.004241406725681987</v>
       </c>
       <c r="D47">
-        <v>-0.007536729023837321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01103411347732652</v>
+      </c>
+      <c r="E47">
+        <v>-0.02257392213520747</v>
+      </c>
+      <c r="F47">
+        <v>0.03186068397396286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.048206947533601</v>
+        <v>0.05082625639286312</v>
       </c>
       <c r="C48">
-        <v>0.004791887928580344</v>
+        <v>-0.002211465563486317</v>
       </c>
       <c r="D48">
-        <v>-0.04498056606091767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05015599497667964</v>
+      </c>
+      <c r="E48">
+        <v>0.004830268693894107</v>
+      </c>
+      <c r="F48">
+        <v>-0.01242093688555174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2008729366813363</v>
+        <v>0.2001531751381741</v>
       </c>
       <c r="C49">
-        <v>0.02197793993403684</v>
+        <v>-0.02035484099213576</v>
       </c>
       <c r="D49">
-        <v>0.01160793756042039</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005050307753627557</v>
+      </c>
+      <c r="E49">
+        <v>-0.03252253272382742</v>
+      </c>
+      <c r="F49">
+        <v>-0.04758822993392593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04966244373187503</v>
+        <v>0.05179440140607431</v>
       </c>
       <c r="C50">
-        <v>0.01310945467898859</v>
+        <v>-0.01171050878596205</v>
       </c>
       <c r="D50">
-        <v>-0.02241617321928881</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02332564445632868</v>
+      </c>
+      <c r="E50">
+        <v>-0.02965583552782869</v>
+      </c>
+      <c r="F50">
+        <v>-0.01033058808886186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1557612640072366</v>
+        <v>0.1493756229018639</v>
       </c>
       <c r="C52">
-        <v>0.02061823895208122</v>
+        <v>-0.01881693064508348</v>
       </c>
       <c r="D52">
-        <v>-0.04464021106754793</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04274427992805506</v>
+      </c>
+      <c r="E52">
+        <v>-0.02324211675107746</v>
+      </c>
+      <c r="F52">
+        <v>-0.04333753571239836</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1746436629308454</v>
+        <v>0.1695035157044354</v>
       </c>
       <c r="C53">
-        <v>0.0210405944971569</v>
+        <v>-0.02165522708112615</v>
       </c>
       <c r="D53">
-        <v>-0.009074857642133397</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006142253779168783</v>
+      </c>
+      <c r="E53">
+        <v>-0.03074457677328829</v>
+      </c>
+      <c r="F53">
+        <v>-0.07586709975974625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01650290649823024</v>
+        <v>0.01955043480730007</v>
       </c>
       <c r="C54">
-        <v>0.01231851008601203</v>
+        <v>-0.01089685887768758</v>
       </c>
       <c r="D54">
-        <v>-0.02887391325569341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03341226947245812</v>
+      </c>
+      <c r="E54">
+        <v>-0.02112049670918642</v>
+      </c>
+      <c r="F54">
+        <v>0.002124556415921997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1175335054502183</v>
+        <v>0.1160554311570292</v>
       </c>
       <c r="C55">
-        <v>0.01864158135564524</v>
+        <v>-0.01886504815592678</v>
       </c>
       <c r="D55">
-        <v>-0.007938076492121653</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009011928143494153</v>
+      </c>
+      <c r="E55">
+        <v>-0.02628077162726589</v>
+      </c>
+      <c r="F55">
+        <v>-0.04767252336214278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806459244113884</v>
+        <v>0.1759552798160273</v>
       </c>
       <c r="C56">
-        <v>0.0189910555951621</v>
+        <v>-0.01963105854494879</v>
       </c>
       <c r="D56">
-        <v>0.0002677443089556842</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00239747393005934</v>
+      </c>
+      <c r="E56">
+        <v>-0.03282129907182597</v>
+      </c>
+      <c r="F56">
+        <v>-0.0554890046349512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04898648635868776</v>
+        <v>0.0462647794978698</v>
       </c>
       <c r="C58">
-        <v>0.005702681774355465</v>
+        <v>-0.0001692774788772401</v>
       </c>
       <c r="D58">
-        <v>-0.06325604476874883</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0760211253352418</v>
+      </c>
+      <c r="E58">
+        <v>-0.03635539817336504</v>
+      </c>
+      <c r="F58">
+        <v>0.03706534949694098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1624475371866808</v>
+        <v>0.1674007866970167</v>
       </c>
       <c r="C59">
-        <v>0.01521407859395872</v>
+        <v>-0.02364348836646751</v>
       </c>
       <c r="D59">
-        <v>0.2235975529701159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2185135748773227</v>
+      </c>
+      <c r="E59">
+        <v>0.04955284095705902</v>
+      </c>
+      <c r="F59">
+        <v>0.03852638303657346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2380330805834489</v>
+        <v>0.2297617522612339</v>
       </c>
       <c r="C60">
-        <v>0.002535358935229777</v>
+        <v>0.0002603304112726627</v>
       </c>
       <c r="D60">
-        <v>-0.04078857495497428</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03920239349019172</v>
+      </c>
+      <c r="E60">
+        <v>-0.005851857809964663</v>
+      </c>
+      <c r="F60">
+        <v>-0.004343139491301591</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08387840881345285</v>
+        <v>0.07736299044428947</v>
       </c>
       <c r="C61">
-        <v>0.01723571318607001</v>
+        <v>-0.01141389692552063</v>
       </c>
       <c r="D61">
-        <v>-0.1076241315882646</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1160043319126881</v>
+      </c>
+      <c r="E61">
+        <v>-0.03808183286131556</v>
+      </c>
+      <c r="F61">
+        <v>-0.008334736730830936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1723258174178779</v>
+        <v>0.1692624946897387</v>
       </c>
       <c r="C62">
-        <v>0.02310985275524197</v>
+        <v>-0.02247992172830485</v>
       </c>
       <c r="D62">
-        <v>-0.00105516724277235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006289555475970892</v>
+      </c>
+      <c r="E62">
+        <v>-0.03424672094489373</v>
+      </c>
+      <c r="F62">
+        <v>-0.04159606827745015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04201132753007053</v>
+        <v>0.04589134117563892</v>
       </c>
       <c r="C63">
-        <v>0.005586652441236879</v>
+        <v>-0.001732202656859244</v>
       </c>
       <c r="D63">
-        <v>-0.04806476399739295</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06039497019696593</v>
+      </c>
+      <c r="E63">
+        <v>-0.02443539862073956</v>
+      </c>
+      <c r="F63">
+        <v>-0.001232378847469151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1131801172095838</v>
+        <v>0.1108052611064287</v>
       </c>
       <c r="C64">
-        <v>0.01576770219903694</v>
+        <v>-0.01260625770892644</v>
       </c>
       <c r="D64">
-        <v>-0.03147005094326265</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04258345276758307</v>
+      </c>
+      <c r="E64">
+        <v>-0.02350152945631211</v>
+      </c>
+      <c r="F64">
+        <v>-0.02534280430130455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.14349572692513</v>
+        <v>0.1515259448828815</v>
       </c>
       <c r="C65">
-        <v>0.03502246374383199</v>
+        <v>-0.03532845300402674</v>
       </c>
       <c r="D65">
-        <v>0.05887245400987422</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04640522463812057</v>
+      </c>
+      <c r="E65">
+        <v>-0.005729024645383572</v>
+      </c>
+      <c r="F65">
+        <v>-0.03741697104819246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1354406933266169</v>
+        <v>0.1217892047455463</v>
       </c>
       <c r="C66">
-        <v>0.02170929399416614</v>
+        <v>-0.01446801326340938</v>
       </c>
       <c r="D66">
-        <v>-0.1279214494697092</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1391379010808221</v>
+      </c>
+      <c r="E66">
+        <v>-0.06412540499913454</v>
+      </c>
+      <c r="F66">
+        <v>-0.0272637988074427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06315720458958722</v>
+        <v>0.05589342575984368</v>
       </c>
       <c r="C67">
-        <v>0.005870813699949895</v>
+        <v>-0.003300939929537221</v>
       </c>
       <c r="D67">
-        <v>-0.05459073179898283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05712611014597579</v>
+      </c>
+      <c r="E67">
+        <v>-0.01817544673285893</v>
+      </c>
+      <c r="F67">
+        <v>0.03438956392140721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1071986147572767</v>
+        <v>0.1171780531209769</v>
       </c>
       <c r="C68">
-        <v>0.02345397917094108</v>
+        <v>-0.03404423672305319</v>
       </c>
       <c r="D68">
-        <v>0.2649578084710671</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611708767215221</v>
+      </c>
+      <c r="E68">
+        <v>0.08879775373486748</v>
+      </c>
+      <c r="F68">
+        <v>-0.0009637386291835204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03979358696334871</v>
+        <v>0.03869329664859066</v>
       </c>
       <c r="C69">
-        <v>0.00219095768302536</v>
+        <v>-0.001335268656716161</v>
       </c>
       <c r="D69">
-        <v>-0.006297700726214502</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008199457772521552</v>
+      </c>
+      <c r="E69">
+        <v>-0.02389211190108594</v>
+      </c>
+      <c r="F69">
+        <v>0.0008742067352588846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06645886088913612</v>
+        <v>0.06720258099997233</v>
       </c>
       <c r="C70">
-        <v>-0.02416408542904507</v>
+        <v>0.02688175710033237</v>
       </c>
       <c r="D70">
-        <v>-0.005126983591423471</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02582135587787628</v>
+      </c>
+      <c r="E70">
+        <v>0.0307791862787466</v>
+      </c>
+      <c r="F70">
+        <v>0.1813116102813067</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1263185166598708</v>
+        <v>0.1370433833337424</v>
       </c>
       <c r="C71">
-        <v>0.02796613708314102</v>
+        <v>-0.03869998071546889</v>
       </c>
       <c r="D71">
-        <v>0.2815915885858485</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2713454144055819</v>
+      </c>
+      <c r="E71">
+        <v>0.0982256698776558</v>
+      </c>
+      <c r="F71">
+        <v>-0.006525594866422698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1380516031193478</v>
+        <v>0.1445922096826873</v>
       </c>
       <c r="C72">
-        <v>0.0278829887824999</v>
+        <v>-0.02843710069137263</v>
       </c>
       <c r="D72">
-        <v>-0.001757742305294406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004270944987785146</v>
+      </c>
+      <c r="E72">
+        <v>-0.03817530237138418</v>
+      </c>
+      <c r="F72">
+        <v>-0.02796255445581831</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2049660189963428</v>
+        <v>0.2037963246541438</v>
       </c>
       <c r="C73">
-        <v>0.01702534541741152</v>
+        <v>-0.01350601030351384</v>
       </c>
       <c r="D73">
-        <v>-0.009490148192632223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01867356320629067</v>
+      </c>
+      <c r="E73">
+        <v>-0.06661988580781103</v>
+      </c>
+      <c r="F73">
+        <v>-0.04153841008700395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09327663833338179</v>
+        <v>0.09454209104717977</v>
       </c>
       <c r="C74">
-        <v>0.01453344351434924</v>
+        <v>-0.01408956713241266</v>
       </c>
       <c r="D74">
-        <v>-0.01576427384244963</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01729696831829774</v>
+      </c>
+      <c r="E74">
+        <v>-0.04447928603929928</v>
+      </c>
+      <c r="F74">
+        <v>-0.0529618847481142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1343351390158886</v>
+        <v>0.1266290378689561</v>
       </c>
       <c r="C75">
-        <v>0.03104667442986905</v>
+        <v>-0.02963374120045838</v>
       </c>
       <c r="D75">
-        <v>-0.02630359840027977</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02952545653582584</v>
+      </c>
+      <c r="E75">
+        <v>-0.0573140413799411</v>
+      </c>
+      <c r="F75">
+        <v>-0.02147775508860141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08228396391086062</v>
+        <v>0.09041158013397783</v>
       </c>
       <c r="C77">
-        <v>0.01475141144676748</v>
+        <v>-0.008491826952971441</v>
       </c>
       <c r="D77">
-        <v>-0.1032958618390343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.114719440715052</v>
+      </c>
+      <c r="E77">
+        <v>-0.04505747418456364</v>
+      </c>
+      <c r="F77">
+        <v>-0.03347379941943374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09964071714091907</v>
+        <v>0.1009893781885462</v>
       </c>
       <c r="C78">
-        <v>0.04419703472449935</v>
+        <v>-0.03894843877525985</v>
       </c>
       <c r="D78">
-        <v>-0.1098488637996262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1116915790561675</v>
+      </c>
+      <c r="E78">
+        <v>-0.07636212013504949</v>
+      </c>
+      <c r="F78">
+        <v>-0.05242275864180043</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1651911184842196</v>
+        <v>0.1630062077966283</v>
       </c>
       <c r="C79">
-        <v>0.02563767484197414</v>
+        <v>-0.02468392097300338</v>
       </c>
       <c r="D79">
-        <v>-0.009104725876417565</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0132346374316515</v>
+      </c>
+      <c r="E79">
+        <v>-0.04445165520157911</v>
+      </c>
+      <c r="F79">
+        <v>-0.01351888488623482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08138439136539917</v>
+        <v>0.0798114434370364</v>
       </c>
       <c r="C80">
-        <v>0.001779432553972615</v>
+        <v>0.0005160671409580803</v>
       </c>
       <c r="D80">
-        <v>-0.05606246740931622</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05402488374455039</v>
+      </c>
+      <c r="E80">
+        <v>-0.03295045930159959</v>
+      </c>
+      <c r="F80">
+        <v>0.02534481198397492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1202822619565905</v>
+        <v>0.1168274577992319</v>
       </c>
       <c r="C81">
-        <v>0.03279555690275452</v>
+        <v>-0.03300629950534616</v>
       </c>
       <c r="D81">
-        <v>-0.01746123734753379</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01449025804781995</v>
+      </c>
+      <c r="E81">
+        <v>-0.05485300224077366</v>
+      </c>
+      <c r="F81">
+        <v>-0.01889846749713021</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658250469322672</v>
+        <v>0.1654533021576958</v>
       </c>
       <c r="C82">
-        <v>0.02618469934894329</v>
+        <v>-0.02710081116750491</v>
       </c>
       <c r="D82">
-        <v>-0.01028273294287402</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003034654757055773</v>
+      </c>
+      <c r="E82">
+        <v>-0.02867837195220934</v>
+      </c>
+      <c r="F82">
+        <v>-0.08262265079653487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06347194239602354</v>
+        <v>0.05730865183652021</v>
       </c>
       <c r="C83">
-        <v>0.005496761128152386</v>
+        <v>-0.003307181297850687</v>
       </c>
       <c r="D83">
-        <v>-0.04361892297079599</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04833533110830944</v>
+      </c>
+      <c r="E83">
+        <v>-0.001469912004647754</v>
+      </c>
+      <c r="F83">
+        <v>0.03498437662249672</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06218049593201918</v>
+        <v>0.05668672502021478</v>
       </c>
       <c r="C84">
-        <v>0.0140423454759767</v>
+        <v>-0.01090114237801895</v>
       </c>
       <c r="D84">
-        <v>-0.06847432786996457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07186482316363234</v>
+      </c>
+      <c r="E84">
+        <v>-0.01370576022053981</v>
+      </c>
+      <c r="F84">
+        <v>-0.01472308003415571</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1386661010637692</v>
+        <v>0.1346455437021675</v>
       </c>
       <c r="C85">
-        <v>0.02981675131773402</v>
+        <v>-0.02966249933767104</v>
       </c>
       <c r="D85">
-        <v>-0.01002602505365449</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01009034058857339</v>
+      </c>
+      <c r="E85">
+        <v>-0.03675365328070759</v>
+      </c>
+      <c r="F85">
+        <v>-0.04824267298268534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1014094902100688</v>
+        <v>0.09364100885385368</v>
       </c>
       <c r="C86">
-        <v>-0.002985518910266171</v>
+        <v>0.005596515598527653</v>
       </c>
       <c r="D86">
-        <v>-0.00966673582256942</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05190134421664611</v>
+      </c>
+      <c r="E86">
+        <v>-0.2215869937743058</v>
+      </c>
+      <c r="F86">
+        <v>0.8987126939284835</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09713044919629735</v>
+        <v>0.09299839197413083</v>
       </c>
       <c r="C87">
-        <v>0.02838888875015158</v>
+        <v>-0.01952400819613851</v>
       </c>
       <c r="D87">
-        <v>-0.07313325776919351</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09594564541710011</v>
+      </c>
+      <c r="E87">
+        <v>0.05162134094973825</v>
+      </c>
+      <c r="F87">
+        <v>-0.05082309382812709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06186913472345225</v>
+        <v>0.06094768465179755</v>
       </c>
       <c r="C88">
-        <v>0.005292785591776779</v>
+        <v>-0.002755588152002681</v>
       </c>
       <c r="D88">
-        <v>-0.05222875679671794</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0501775842351031</v>
+      </c>
+      <c r="E88">
+        <v>-0.02410193306299529</v>
+      </c>
+      <c r="F88">
+        <v>-0.01512549798644617</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1189167898651003</v>
+        <v>0.1274887196145033</v>
       </c>
       <c r="C89">
-        <v>0.004720844533386566</v>
+        <v>-0.01407747123477728</v>
       </c>
       <c r="D89">
-        <v>0.2485616177403965</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2446515482698988</v>
+      </c>
+      <c r="E89">
+        <v>0.09260548558362343</v>
+      </c>
+      <c r="F89">
+        <v>0.007913421967259363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1385622342161336</v>
+        <v>0.151996164563483</v>
       </c>
       <c r="C90">
-        <v>0.02391391006368495</v>
+        <v>-0.03532230438171757</v>
       </c>
       <c r="D90">
-        <v>0.266434334777703</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2682193045531625</v>
+      </c>
+      <c r="E90">
+        <v>0.1142873275153228</v>
+      </c>
+      <c r="F90">
+        <v>0.009237432039442139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1209069250960297</v>
+        <v>0.1202710209605808</v>
       </c>
       <c r="C91">
-        <v>0.02051234588401288</v>
+        <v>-0.02119982803879046</v>
       </c>
       <c r="D91">
-        <v>0.01496229575471228</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01567967287005574</v>
+      </c>
+      <c r="E91">
+        <v>-0.05413737386398543</v>
+      </c>
+      <c r="F91">
+        <v>0.0007504696161860937</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1404569147125839</v>
+        <v>0.1478147637008892</v>
       </c>
       <c r="C92">
-        <v>0.01504773179138045</v>
+        <v>-0.02670884105951914</v>
       </c>
       <c r="D92">
-        <v>0.3002964650282375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2913718352418816</v>
+      </c>
+      <c r="E92">
+        <v>0.1013108639995871</v>
+      </c>
+      <c r="F92">
+        <v>0.01975841517841869</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.141138557598034</v>
+        <v>0.1529773717972695</v>
       </c>
       <c r="C93">
-        <v>0.02025611660558461</v>
+        <v>-0.03038605311403223</v>
       </c>
       <c r="D93">
-        <v>0.2681206310717579</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2645165515571212</v>
+      </c>
+      <c r="E93">
+        <v>0.07653383665866707</v>
+      </c>
+      <c r="F93">
+        <v>-0.002374373795702292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1344099648533932</v>
+        <v>0.1270896054974229</v>
       </c>
       <c r="C94">
-        <v>0.02756205477997275</v>
+        <v>-0.02580169837629613</v>
       </c>
       <c r="D94">
-        <v>-0.03985958465894936</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04028417877611436</v>
+      </c>
+      <c r="E94">
+        <v>-0.05718087982932835</v>
+      </c>
+      <c r="F94">
+        <v>-0.03260227498051865</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1243965608506453</v>
+        <v>0.1275633828360514</v>
       </c>
       <c r="C95">
-        <v>0.009485846897465643</v>
+        <v>-0.003753952125679989</v>
       </c>
       <c r="D95">
-        <v>-0.08794785853535676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09892564476763938</v>
+      </c>
+      <c r="E95">
+        <v>-0.05449992301426449</v>
+      </c>
+      <c r="F95">
+        <v>-0.001911639609203825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1225418266123891</v>
+        <v>0.1172567868822246</v>
       </c>
       <c r="C96">
-        <v>-0.9867236887265276</v>
+        <v>0.9862148721973836</v>
       </c>
       <c r="D96">
-        <v>0.01517898824281387</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05237889776346023</v>
+      </c>
+      <c r="E96">
+        <v>-0.05208058160617979</v>
+      </c>
+      <c r="F96">
+        <v>-0.04234473034210109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1951121611367362</v>
+        <v>0.1959050316881994</v>
       </c>
       <c r="C97">
-        <v>-0.004305141001220376</v>
+        <v>0.004787662160866194</v>
       </c>
       <c r="D97">
-        <v>0.0188369015543777</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02110570453124825</v>
+      </c>
+      <c r="E97">
+        <v>-0.02316837301838924</v>
+      </c>
+      <c r="F97">
+        <v>0.1182725630632618</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1991266144772008</v>
+        <v>0.2051748517616074</v>
       </c>
       <c r="C98">
-        <v>0.01173477276762337</v>
+        <v>-0.007967525875192984</v>
       </c>
       <c r="D98">
-        <v>-0.009759079737758043</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01479764804305464</v>
+      </c>
+      <c r="E98">
+        <v>0.07594975233413673</v>
+      </c>
+      <c r="F98">
+        <v>0.09253890936416095</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05546364954117725</v>
+        <v>0.05540869316447526</v>
       </c>
       <c r="C99">
-        <v>-0.001905338978206314</v>
+        <v>0.003978575042241862</v>
       </c>
       <c r="D99">
-        <v>-0.03155945979749291</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03888123280962569</v>
+      </c>
+      <c r="E99">
+        <v>-0.02170304103851181</v>
+      </c>
+      <c r="F99">
+        <v>-0.004542223500031192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1420783052476508</v>
+        <v>0.1297402460012881</v>
       </c>
       <c r="C100">
-        <v>-0.03867667734548187</v>
+        <v>0.05148224277132987</v>
       </c>
       <c r="D100">
-        <v>-0.396116955070314</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3530017751994754</v>
+      </c>
+      <c r="E100">
+        <v>0.8857223898887299</v>
+      </c>
+      <c r="F100">
+        <v>0.1473362980205887</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02529945716066091</v>
+        <v>0.02855363655719616</v>
       </c>
       <c r="C101">
-        <v>0.009552990511090169</v>
+        <v>-0.008788430845844552</v>
       </c>
       <c r="D101">
-        <v>-0.0278368237491045</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03054901525194899</v>
+      </c>
+      <c r="E101">
+        <v>-0.01257345691485972</v>
+      </c>
+      <c r="F101">
+        <v>0.01385318227530637</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
